--- a/medicine/Mort/Nouveau_cimetière_de_Vaasa/Nouveau_cimetière_de_Vaasa.xlsx
+++ b/medicine/Mort/Nouveau_cimetière_de_Vaasa/Nouveau_cimetière_de_Vaasa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nouveau_cimeti%C3%A8re_de_Vaasa</t>
+          <t>Nouveau_cimetière_de_Vaasa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nouveau cimetière de Vaasa (finnois : Vaasan uusi hautausmaa) est un cimetière du quartier de Vöyrinkaupunki à Vaasa en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nouveau cimetière de Vaasa (finnois : Vaasan uusi hautausmaa) est un cimetière du quartier de Vöyrinkaupunki à Vaasa en Finlande.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nouveau_cimeti%C3%A8re_de_Vaasa</t>
+          <t>Nouveau_cimetière_de_Vaasa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nouveau cimetière de Vaasa a été fondé le 19 mai 1921. 
 Des carrés supplémentaires ont été construits dans le cimetière selon les besoins. 
@@ -522,8 +536,8 @@
 une grande et une petite chapelle funéraires
 un crématorium
 La chapelle funéraire du nouveau cimetière, accueille aussi des concerts et des dévotions.
-Le bâtiment, achevé en 1973, a été conçu par l'architecte Juhani Katainen. Le bâtiment dispose de deux chapelles, la plus petite pouvant accueillir 60 personnes et la plus grande pouvant accueillir 140 personnes[2].
-Le vitrail de la petite chapelle est décoré d'une mosaïque de verre du professeur Lauri Ahlgren de 1997[2].
+Le bâtiment, achevé en 1973, a été conçu par l'architecte Juhani Katainen. Le bâtiment dispose de deux chapelles, la plus petite pouvant accueillir 60 personnes et la plus grande pouvant accueillir 140 personnes.
+Le vitrail de la petite chapelle est décoré d'une mosaïque de verre du professeur Lauri Ahlgren de 1997.
 </t>
         </is>
       </c>
